--- a/metrics/MAPE/Enfermedad renal terminal.xlsx
+++ b/metrics/MAPE/Enfermedad renal terminal.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02798825045333315</v>
+        <v>0.02766856809322505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02758742046673583</v>
+        <v>0.028311041222579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02786149437612914</v>
+        <v>0.02787882250254685</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02468029352883881</v>
+        <v>0.02369089197096923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02468023319596658</v>
+        <v>0.02373992472644386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02468043269930881</v>
+        <v>0.02367956531885941</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03688323969418193</v>
+        <v>0.03692004837412573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0377973269309268</v>
+        <v>0.03708459140034859</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03787101789790686</v>
+        <v>0.03892841058090567</v>
       </c>
     </row>
   </sheetData>
